--- a/Data/Data/subj1/subj1_1__Female.xlsx
+++ b/Data/Data/subj1/subj1_1__Female.xlsx
@@ -1,17 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>corr_ans</t>
+  </si>
+  <si>
+    <t>resp</t>
+  </si>
+  <si>
+    <t>conf</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target8.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor5.jpg</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -50,6 +73,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -65,74 +89,6 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -425,7 +381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,112 +389,46 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>corr_ans</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>resp</t>
-        </is>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor20.jpg</t>
-        </is>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target4.jpg</t>
-        </is>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor3.jpg</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target3.jpg</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target8.jpg</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor7.jpg</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target20.jpg</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
+      <c r="D3" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
